--- a/biology/Virologie/Virus_des_taches_annulaires_nécrotiques_des_Prunus/Virus_des_taches_annulaires_nécrotiques_des_Prunus.xlsx
+++ b/biology/Virologie/Virus_des_taches_annulaires_nécrotiques_des_Prunus/Virus_des_taches_annulaires_nécrotiques_des_Prunus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Virus_des_taches_annulaires_n%C3%A9crotiques_des_Prunus</t>
+          <t>Virus_des_taches_annulaires_nécrotiques_des_Prunus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus des taches annulaires nécrotiques des Prunus (PNRSV, Prunus necrotic ringspot virus) est une espèce de phytovirus du genre Ilarvirus (famille des Bromoviridae) à répartition cosmopolite. Ce virus a été initialement décrit par Cochran &amp; Hutchins en 1941 sous le nom de Peach dwarf virus (DPV, virus du nanisme du pêcher)[1].
-Ce virus provoque des maladies de taches annulaires chez les espèces de plantes du genre  Prunus , ainsi que chez d'autres espèces, notamment dans le genre Rosa sp. (rosiers), ainsi que chez le houblon (Humulus lupulus)[2],[3]. Le PNRSV a une distribution mondiale dans les régions tempérées du fait de sa transmission facile par les méthodes de propagation des plantes et par les graines infectées[4]. Le PNRSV a plusieurs synonymes, notamment European plum line pattern virus, Hop B virus, Hop C virus, Plum line pattern virus, Sour cherry necrotic ringspot virus et Peach ringspot virus[5]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus des taches annulaires nécrotiques des Prunus (PNRSV, Prunus necrotic ringspot virus) est une espèce de phytovirus du genre Ilarvirus (famille des Bromoviridae) à répartition cosmopolite. Ce virus a été initialement décrit par Cochran &amp; Hutchins en 1941 sous le nom de Peach dwarf virus (DPV, virus du nanisme du pêcher).
+Ce virus provoque des maladies de taches annulaires chez les espèces de plantes du genre  Prunus , ainsi que chez d'autres espèces, notamment dans le genre Rosa sp. (rosiers), ainsi que chez le houblon (Humulus lupulus),. Le PNRSV a une distribution mondiale dans les régions tempérées du fait de sa transmission facile par les méthodes de propagation des plantes et par les graines infectées. Le PNRSV a plusieurs synonymes, notamment European plum line pattern virus, Hop B virus, Hop C virus, Plum line pattern virus, Sour cherry necrotic ringspot virus et Peach ringspot virus
 </t>
         </is>
       </c>
